--- a/output/xlsx/RF015 - Gerenciar Planos de Capacitacao de TI--Complete-.xlsx
+++ b/output/xlsx/RF015 - Gerenciar Planos de Capacitacao de TI--Complete-.xlsx
@@ -95,7 +95,7 @@
     <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Planos de Capacitacao de TI a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC2</t>
@@ -104,10 +104,10 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Planos de Capacitacao de TI a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas seleciona um Planos de Capacitacao de TI da listagem</t>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas seleciona um Plano de Capacitacao de TI da listagem</t>
   </si>
   <si>
     <t>SYSTEM destaca a Capacitacao de TI selecionada na listagem</t>
@@ -122,7 +122,7 @@
     <t>Lider de Pessoas nao confirma a exclusao da Capacitacao de TI</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI com a Capacitacao de TI excluida</t>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI com a Capacitacao de TI nao excluida</t>
   </si>
   <si>
     <t>TC3</t>
@@ -131,7 +131,7 @@
     <t>Lider de Pessoas confirma a exclusao da Capacitacao de TI</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI sem a Capacitacao de TI excluida</t>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI sem a Capacitacao de TI excluida</t>
   </si>
   <si>
     <t>TC4</t>
@@ -155,25 +155,25 @@
     <t>SYSTEM apresenta o formulario para cadastro e alteracao de Planos de Capacitacao de TI</t>
   </si>
   <si>
-    <t>Lider de Pessoas escolha o 'Periodo Avaliativo' apropriado no campo de selecao</t>
+    <t>Lider de Pessoas escolhe o 'Periodo Avaliativo' apropriado no campo de selecao</t>
   </si>
   <si>
     <t>SYSTEM exibe o 'Periodo Avaliativo' selecionado corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas selecione a 'Unidade' correspondente no campo de selecao de unidade</t>
+    <t>Lider de Pessoas seleciona a 'Unidade' correspondente no campo de selecao de unidade</t>
   </si>
   <si>
     <t>SYSTEM exibe o campo 'Unidade' preenchido corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas preencha o campo 'Possiveis Capacitacoes' com informacoes sobre capacitacoes adicionais</t>
+    <t>Lider de Pessoas preenche o campo 'Possiveis Capacitacoes' com informacoes sobre capacitacoes adicionais</t>
   </si>
   <si>
     <t>SYSTEM exibe o campo 'Possiveis Capacitacoes' preenchido corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas preencha o campo 'Observacao' com informacoes adicionais ou relevantes sobre o plano de capacitacao</t>
+    <t>Lider de Pessoas preenche o campo 'Observacao' com informacoes adicionais ou relevantes sobre o plano de capacitacao</t>
   </si>
   <si>
     <t>SYSTEM exibe o campo 'Observacao' preenchido corretamente</t>
